--- a/artfynd/A 4904-2019.xlsx
+++ b/artfynd/A 4904-2019.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>61608620</v>
+        <v>61603561</v>
       </c>
       <c r="B2" t="n">
         <v>98536</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>24</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -725,14 +725,14 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Fåssjödal / 700 m SV /, Hls</t>
+          <t>Fåssjödal: jaktskyttebanan, Hls</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>507322.104312678</v>
+        <v>507276.2021884774</v>
       </c>
       <c r="R2" t="n">
-        <v>6894076.860792432</v>
+        <v>6894539.132468057</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -759,7 +759,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2005-05-23</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2005-05-23</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Detalj. 30 ex inom 1,5 m2. 1 avbetad, troligen hare.</t>
+          <t>Detalj. 24 ex. varav 19 bl. inom 2x4 m. 70 m norr om skjutstation.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -806,7 +806,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>61603563</v>
+        <v>61603560</v>
       </c>
       <c r="B3" t="n">
         <v>98536</v>
@@ -841,7 +841,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>55</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -851,14 +851,14 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Fåssjödal / 600 m SV /, Hls</t>
+          <t>Fåssjödal: jaktskyttebanan, Hls</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>507428.3303634566</v>
+        <v>507284.6610038741</v>
       </c>
       <c r="R3" t="n">
-        <v>6894056.541744754</v>
+        <v>6894520.47029569</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -905,7 +905,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Detalj. 27 ex inom 3x3 m.</t>
+          <t>Detalj. 55 ex. varav 15 bl. inom 10x4 m. 8 ex. avbetade, troligen av hare. 50 m norr om skjutstation.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -932,7 +932,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>61603564</v>
+        <v>61603559</v>
       </c>
       <c r="B4" t="n">
         <v>98536</v>
@@ -967,7 +967,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -977,14 +977,14 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Fåssjödal / 600 m SV /, Hls</t>
+          <t>Fåssjödal: jaktskyttebanan, Hls</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>507433.4911580504</v>
+        <v>507283.7669632705</v>
       </c>
       <c r="R4" t="n">
-        <v>6894049.546962359</v>
+        <v>6894501.32081546</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Detalj. 15 ex inom 6 m2.</t>
+          <t>Detalj. 2 ex. bl. inom 0,1 m2. 30 m norr om skjutstation.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1058,7 +1058,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>61603561</v>
+        <v>61603562</v>
       </c>
       <c r="B5" t="n">
         <v>98536</v>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>48</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>507276.2021884774</v>
+        <v>507271.0595821391</v>
       </c>
       <c r="R5" t="n">
-        <v>6894539.132468057</v>
+        <v>6894538.1873585</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Detalj. 24 ex. varav 19 bl. inom 2x4 m. 70 m norr om skjutstation.</t>
+          <t>Detalj. 48 ex. varav 11 bl. inom 12 m2. 3 ex. avbetade, troligen av hare. 70 m norr om skjutstation.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1184,7 +1184,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>61603560</v>
+        <v>61615385</v>
       </c>
       <c r="B6" t="n">
         <v>98536</v>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1229,14 +1229,14 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Fåssjödal: jaktskyttebanan, Hls</t>
+          <t>Väg 314: Fåssjödals jaktskyttebana, Hls</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>507284.6610038741</v>
+        <v>507292.8087301891</v>
       </c>
       <c r="R6" t="n">
-        <v>6894520.47029569</v>
+        <v>6894429.419321662</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>2010-05-11</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>2010-05-11</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Detalj. 55 ex. varav 15 bl. inom 10x4 m. 8 ex. avbetade, troligen av hare. 50 m norr om skjutstation.</t>
+          <t>Detalj. 5 rosetter varav 3 bl. inom 1 m2. Ny dellokal ca 15 m söder om tidigare känd.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1303,14 +1303,14 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Hanna Wallén</t>
+          <t>Bengt Petterson, Bengt Ålkils</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>61603559</v>
+        <v>65241436</v>
       </c>
       <c r="B7" t="n">
         <v>98536</v>
@@ -1343,29 +1343,27 @@
           <t>(L.) Mill.</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Fåssjödal: jaktskyttebanan, Hls</t>
+          <t>Skjutbanan Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>507283.7669632705</v>
+        <v>507276.7001080211</v>
       </c>
       <c r="R7" t="n">
-        <v>6894501.32081546</v>
+        <v>6894525.123228387</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1389,7 +1387,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>2017-05-01</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1399,7 +1397,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>2017-05-01</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1409,7 +1407,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Detalj. 2 ex. bl. inom 0,1 m2. 30 m norr om skjutstation.</t>
+          <t>Plantorna närmast vägen i knopp övriga i full blomning</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1424,19 +1422,19 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Lars-Åke Bäckström</t>
+          <t>Håkan Blomqvist</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Hanna Wallén</t>
+          <t>Håkan Blomqvist</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>61603562</v>
+        <v>71291278</v>
       </c>
       <c r="B8" t="n">
         <v>98536</v>
@@ -1469,29 +1467,23 @@
           <t>(L.) Mill.</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Fåssjödal: jaktskyttebanan, Hls</t>
+          <t>Skjutbanan, Fåssjö, Hls</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>507271.0595821391</v>
+        <v>507288.4076122353</v>
       </c>
       <c r="R8" t="n">
-        <v>6894538.1873585</v>
+        <v>6894518.143328622</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1515,7 +1507,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>2018-05-09</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1525,17 +1517,12 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>2018-05-09</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Detalj. 48 ex. varav 11 bl. inom 12 m2. 3 ex. avbetade, troligen av hare. 70 m norr om skjutstation.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1550,19 +1537,19 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Lars-Åke Bäckström</t>
+          <t>Michael Tholin</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Hanna Wallén</t>
+          <t>Michael Tholin</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>61608619</v>
+        <v>77241182</v>
       </c>
       <c r="B9" t="n">
         <v>98536</v>
@@ -1597,24 +1584,23 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Fåssjödal / 700 m SV /, Hls</t>
+          <t>Fåssjödal, skjutbanan, Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>507334.2761449886</v>
+        <v>507284.6599952099</v>
       </c>
       <c r="R9" t="n">
-        <v>6894072.216497498</v>
+        <v>6894520.937305556</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1641,27 +1627,27 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2005-05-23</t>
+          <t>2019-04-23</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2005-05-23</t>
+          <t>2019-04-23</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Detalj. 161 ex inom 1000 m2. 2 avbetade, troligen hare.</t>
+          <t>1 ex i blom</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1670,32 +1656,33 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Lars-Åke Bäckström</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Hanna Wallén</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>61615385</v>
+        <v>504186</v>
       </c>
       <c r="B10" t="n">
         <v>98536</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1723,24 +1710,24 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Väg 314: Fåssjödals jaktskyttebana, Hls</t>
+          <t>Fåssjödal / 500 m V /, Hls</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>507292.8087301891</v>
+        <v>507452.7896036927</v>
       </c>
       <c r="R10" t="n">
-        <v>6894429.419321662</v>
+        <v>6894418.56041079</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1765,9 +1752,14 @@
           <t>Ytterhogdal</t>
         </is>
       </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Z-Här-0651</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2010-05-11</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1777,7 +1769,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2010-05-11</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1787,7 +1779,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Detalj. 5 rosetter varav 3 bl. inom 1 m2. Ny dellokal ca 15 m söder om tidigare känd.</t>
+          <t>14 ex veg. inom 2x5 m.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1802,22 +1794,26 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Lars-Åke Bäckström</t>
+          <t>Z Län Floraväktarna</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Bengt Petterson, Bengt Ålkils</t>
-        </is>
-      </c>
-      <c r="AY10" t="inlineStr"/>
+          <t>Hanna Wallén</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>65241436</v>
+        <v>80845722</v>
       </c>
       <c r="B11" t="n">
-        <v>98536</v>
+        <v>90639</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1826,48 +1822,50 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1853</v>
+        <v>3100</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Skjutbanan Fåssjödal, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>507276.7001080211</v>
+        <v>507436.8635695092</v>
       </c>
       <c r="R11" t="n">
-        <v>6894525.123228387</v>
+        <v>6894217.230953031</v>
       </c>
       <c r="S11" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1891,7 +1889,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2017-05-01</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1901,7 +1899,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2017-05-01</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1909,11 +1907,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Plantorna närmast vägen i knopp övriga i full blomning</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
@@ -1922,26 +1915,31 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>tät, 25-årig, lavrik åstallskog</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Håkan Blomqvist</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Håkan Blomqvist</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>71291278</v>
+        <v>80845733</v>
       </c>
       <c r="B12" t="n">
-        <v>98536</v>
+        <v>90665</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1950,44 +1948,50 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1853</v>
+        <v>4366</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Skjutbanan, Fåssjö, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>507288.4076122353</v>
+        <v>507320.2104634023</v>
       </c>
       <c r="R12" t="n">
-        <v>6894518.143328622</v>
+        <v>6894302.912628792</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2011,7 +2015,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2018-05-09</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2021,7 +2025,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2018-05-09</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2037,75 +2041,80 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>30-årig sandtallskog</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Michael Tholin</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Michael Tholin</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>504186</v>
+        <v>80845720</v>
       </c>
       <c r="B13" t="n">
-        <v>98536</v>
+        <v>90653</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1853</v>
+        <v>4364</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Fåssjödal / 500 m V /, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>507452.7896036927</v>
+        <v>507402.2100072518</v>
       </c>
       <c r="R13" t="n">
-        <v>6894418.56041079</v>
+        <v>6894235.836839776</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2130,14 +2139,9 @@
           <t>Ytterhogdal</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>Z-Här-0651</t>
-        </is>
-      </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2147,7 +2151,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2155,11 +2159,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>14 ex veg. inom 2x5 m.</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
@@ -2168,27 +2167,33 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>35-årig sandtallskog</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>vägkant</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Z Län Floraväktarna</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Hanna Wallén</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>77241182</v>
+        <v>80913889</v>
       </c>
       <c r="B14" t="n">
         <v>98536</v>
@@ -2226,23 +2231,19 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Fåssjödal, skjutbanan, Fåssjödal, Hls</t>
+          <t>avk2019MITT305, Hls</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>507284.6599952099</v>
+        <v>507265.9261378314</v>
       </c>
       <c r="R14" t="n">
-        <v>6894520.937305556</v>
+        <v>6894315.872411964</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2264,29 +2265,30 @@
           <t>Ytterhogdal</t>
         </is>
       </c>
+      <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2019-04-23</t>
+          <t>2019-06-16</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2019-04-23</t>
+          <t>2019-06-16</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>1 ex i blom</t>
+          <t>Innerslänt</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2295,26 +2297,29 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Klas Andersson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
-        </is>
-      </c>
-      <c r="AY14" t="inlineStr"/>
+          <t>Klas Andersson, Magnus Sjölund</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>Trafikverkets inventeringar av arter i statliga vägmiljöer</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>78233133</v>
+        <v>86640009</v>
       </c>
       <c r="B15" t="n">
         <v>98536</v>
@@ -2349,7 +2354,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>18</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2357,7 +2362,11 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>i frukt</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
@@ -2366,17 +2375,17 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Fåssjl, dödisgrop 1, Hls</t>
+          <t>Fåssjödal,Vägkant-5, Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>507332.8911480352</v>
+        <v>507266.8656099134</v>
       </c>
       <c r="R15" t="n">
-        <v>6894063.80614421</v>
+        <v>6894314.006274063</v>
       </c>
       <c r="S15" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2400,27 +2409,27 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2019-06-04</t>
+          <t>2020-07-03</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2019-06-04</t>
+          <t>2020-07-03</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Endast 1 blomma. Plantorna är hart tränga av renlavar, ljung och enbuskar. De flesta av tallplanten rycktes I fjol sommar av SCA Skog.Dödisgropen är planerad att brännas nu I sommar.</t>
+          <t>NY DELLOKAL! Minst 18 bladrosetter, varav minst 9 blommat och samtliga burit frukt.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2448,7 +2457,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>78233175</v>
+        <v>86640033</v>
       </c>
       <c r="B16" t="n">
         <v>98536</v>
@@ -2483,7 +2492,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2491,7 +2500,11 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>i frukt</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
@@ -2500,17 +2513,17 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Fåssjö, Dödisgrop 2, Hls</t>
+          <t>Fåssjödal, glänta söder vägen, Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>507410.0928670231</v>
+        <v>507269.7142296092</v>
       </c>
       <c r="R16" t="n">
-        <v>6894054.166252391</v>
+        <v>6894294.396651481</v>
       </c>
       <c r="S16" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2534,27 +2547,27 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2019-06-04</t>
+          <t>2020-07-03</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2019-06-04</t>
+          <t>2020-07-03</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Ingen planta blommade. Plantorna är hart tränga av renlavar, ljung och enbuskar. De flesta av tallplanten rycktes I fjol sommar av SCA Skog.Dödisgropen är planerad att brännas nu I sommar.</t>
+          <t>NY DELLOKAL! Minst 6 bladrosetter, varav 4 blommat och tre bär frukt. En knopp torkat.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2582,7 +2595,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>80845722</v>
+        <v>80845723</v>
       </c>
       <c r="B17" t="n">
         <v>90639</v>
@@ -2631,10 +2644,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>507436.8635695092</v>
+        <v>507656.1433368099</v>
       </c>
       <c r="R17" t="n">
-        <v>6894217.230953031</v>
+        <v>6894256.953847989</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2691,6 +2704,11 @@
       <c r="AI17" t="inlineStr">
         <is>
           <t>tät, 25-årig, lavrik åstallskog</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>stig</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2708,7 +2726,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>80845733</v>
+        <v>80845729</v>
       </c>
       <c r="B18" t="n">
         <v>90665</v>
@@ -2757,10 +2775,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>507320.2104634023</v>
+        <v>507656.9197706331</v>
       </c>
       <c r="R18" t="n">
-        <v>6894302.912628792</v>
+        <v>6894327.012192602</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2811,12 +2829,13 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>30-årig sandtallskog</t>
+          <t>tät, lavrik, 30-årig sandtallskog</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2834,10 +2853,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>80845723</v>
+        <v>61608620</v>
       </c>
       <c r="B19" t="n">
-        <v>90639</v>
+        <v>98536</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2846,47 +2865,47 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3100</v>
+        <v>1853</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Fåssjödal / 700 m SV /, Hls</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>507656.1433368099</v>
+        <v>507322.104312678</v>
       </c>
       <c r="R19" t="n">
-        <v>6894256.953847989</v>
+        <v>6894076.860792432</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2913,7 +2932,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2005-05-23</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2923,7 +2942,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2005-05-23</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2931,6 +2950,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Detalj. 30 ex inom 1,5 m2. 1 avbetad, troligen hare.</t>
+        </is>
+      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
@@ -2939,36 +2963,26 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>tät, 25-årig, lavrik åstallskog</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>stig</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Lars-Åke Bäckström</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Hanna Wallén</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>80845729</v>
+        <v>61603563</v>
       </c>
       <c r="B20" t="n">
-        <v>90665</v>
+        <v>98536</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2977,47 +2991,47 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4366</v>
+        <v>1853</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Fåssjödal / 600 m SV /, Hls</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>507656.9197706331</v>
+        <v>507428.3303634566</v>
       </c>
       <c r="R20" t="n">
-        <v>6894327.012192602</v>
+        <v>6894056.541744754</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3044,7 +3058,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -3054,7 +3068,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -3062,40 +3076,39 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Detalj. 27 ex inom 3x3 m.</t>
+        </is>
+      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>tät, lavrik, 30-årig sandtallskog</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Lars-Åke Bäckström</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Hanna Wallén</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>80845720</v>
+        <v>61603564</v>
       </c>
       <c r="B21" t="n">
-        <v>90653</v>
+        <v>98536</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3104,47 +3117,47 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4364</v>
+        <v>1853</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Fåssjödal / 600 m SV /, Hls</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>507402.2100072518</v>
+        <v>507433.4911580504</v>
       </c>
       <c r="R21" t="n">
-        <v>6894235.836839776</v>
+        <v>6894049.546962359</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3171,7 +3184,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3181,7 +3194,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -3189,6 +3202,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Detalj. 15 ex inom 6 m2.</t>
+        </is>
+      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
@@ -3197,33 +3215,23 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AI21" t="inlineStr">
-        <is>
-          <t>35-årig sandtallskog</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>vägkant</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Lars-Åke Bäckström</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Hanna Wallén</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>80913889</v>
+        <v>61608619</v>
       </c>
       <c r="B22" t="n">
         <v>98536</v>
@@ -3258,22 +3266,27 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>avk2019MITT305, Hls</t>
+          <t>Fåssjödal / 700 m SV /, Hls</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>507265.9261378314</v>
+        <v>507334.2761449886</v>
       </c>
       <c r="R22" t="n">
-        <v>6894315.872411964</v>
+        <v>6894072.216497498</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3295,10 +3308,9 @@
           <t>Ytterhogdal</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2019-06-16</t>
+          <t>2005-05-23</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3308,7 +3320,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2019-06-16</t>
+          <t>2005-05-23</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3318,7 +3330,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Innerslänt</t>
+          <t>Detalj. 161 ex inom 1000 m2. 2 avbetade, troligen hare.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3333,23 +3345,19 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Klas Andersson</t>
+          <t>Lars-Åke Bäckström</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Klas Andersson, Magnus Sjölund</t>
-        </is>
-      </c>
-      <c r="AY22" t="inlineStr">
-        <is>
-          <t>Trafikverkets inventeringar av arter i statliga vägmiljöer</t>
-        </is>
-      </c>
+          <t>Hanna Wallén</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>86640009</v>
+        <v>78233133</v>
       </c>
       <c r="B23" t="n">
         <v>98536</v>
@@ -3384,7 +3392,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>72</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3392,11 +3400,7 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>i frukt</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
@@ -3405,17 +3409,17 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Fåssjödal,Vägkant-5, Fåssjödal, Hls</t>
+          <t>Fåssjl, dödisgrop 1, Hls</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>507266.8656099134</v>
+        <v>507332.8911480352</v>
       </c>
       <c r="R23" t="n">
-        <v>6894314.006274063</v>
+        <v>6894063.80614421</v>
       </c>
       <c r="S23" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3439,27 +3443,27 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2020-07-03</t>
+          <t>2019-06-04</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2020-07-03</t>
+          <t>2019-06-04</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>NY DELLOKAL! Minst 18 bladrosetter, varav minst 9 blommat och samtliga burit frukt.</t>
+          <t>Endast 1 blomma. Plantorna är hart tränga av renlavar, ljung och enbuskar. De flesta av tallplanten rycktes I fjol sommar av SCA Skog.Dödisgropen är planerad att brännas nu I sommar.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3487,7 +3491,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>86640033</v>
+        <v>78233175</v>
       </c>
       <c r="B24" t="n">
         <v>98536</v>
@@ -3522,7 +3526,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3530,11 +3534,7 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>i frukt</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
@@ -3543,17 +3543,17 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Fåssjödal, glänta söder vägen, Fåssjödal, Hls</t>
+          <t>Fåssjö, Dödisgrop 2, Hls</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>507269.7142296092</v>
+        <v>507410.0928670231</v>
       </c>
       <c r="R24" t="n">
-        <v>6894294.396651481</v>
+        <v>6894054.166252391</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3577,27 +3577,27 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2020-07-03</t>
+          <t>2019-06-04</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2020-07-03</t>
+          <t>2019-06-04</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>NY DELLOKAL! Minst 6 bladrosetter, varav 4 blommat och tre bär frukt. En knopp torkat.</t>
+          <t>Ingen planta blommade. Plantorna är hart tränga av renlavar, ljung och enbuskar. De flesta av tallplanten rycktes I fjol sommar av SCA Skog.Dödisgropen är planerad att brännas nu I sommar.</t>
         </is>
       </c>
       <c r="AD24" t="b">

--- a/artfynd/A 4904-2019.xlsx
+++ b/artfynd/A 4904-2019.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>61603561</v>
+        <v>61608620</v>
       </c>
       <c r="B2" t="n">
         <v>98536</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -725,14 +725,14 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Fåssjödal: jaktskyttebanan, Hls</t>
+          <t>Fåssjödal / 700 m SV /, Hls</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>507276.2021884774</v>
+        <v>507322.104312678</v>
       </c>
       <c r="R2" t="n">
-        <v>6894539.132468057</v>
+        <v>6894076.860792432</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -759,7 +759,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>2005-05-23</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>2005-05-23</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Detalj. 24 ex. varav 19 bl. inom 2x4 m. 70 m norr om skjutstation.</t>
+          <t>Detalj. 30 ex inom 1,5 m2. 1 avbetad, troligen hare.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -806,7 +806,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>61603560</v>
+        <v>61603563</v>
       </c>
       <c r="B3" t="n">
         <v>98536</v>
@@ -841,7 +841,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>27</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -851,14 +851,14 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Fåssjödal: jaktskyttebanan, Hls</t>
+          <t>Fåssjödal / 600 m SV /, Hls</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>507284.6610038741</v>
+        <v>507428.3303634566</v>
       </c>
       <c r="R3" t="n">
-        <v>6894520.47029569</v>
+        <v>6894056.541744754</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -905,7 +905,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Detalj. 55 ex. varav 15 bl. inom 10x4 m. 8 ex. avbetade, troligen av hare. 50 m norr om skjutstation.</t>
+          <t>Detalj. 27 ex inom 3x3 m.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -932,7 +932,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>61603559</v>
+        <v>61603564</v>
       </c>
       <c r="B4" t="n">
         <v>98536</v>
@@ -967,7 +967,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -977,14 +977,14 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Fåssjödal: jaktskyttebanan, Hls</t>
+          <t>Fåssjödal / 600 m SV /, Hls</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>507283.7669632705</v>
+        <v>507433.4911580504</v>
       </c>
       <c r="R4" t="n">
-        <v>6894501.32081546</v>
+        <v>6894049.546962359</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Detalj. 2 ex. bl. inom 0,1 m2. 30 m norr om skjutstation.</t>
+          <t>Detalj. 15 ex inom 6 m2.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1058,7 +1058,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>61603562</v>
+        <v>61603561</v>
       </c>
       <c r="B5" t="n">
         <v>98536</v>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>24</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>507271.0595821391</v>
+        <v>507276.2021884774</v>
       </c>
       <c r="R5" t="n">
-        <v>6894538.1873585</v>
+        <v>6894539.132468057</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Detalj. 48 ex. varav 11 bl. inom 12 m2. 3 ex. avbetade, troligen av hare. 70 m norr om skjutstation.</t>
+          <t>Detalj. 24 ex. varav 19 bl. inom 2x4 m. 70 m norr om skjutstation.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1184,7 +1184,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>61615385</v>
+        <v>61603560</v>
       </c>
       <c r="B6" t="n">
         <v>98536</v>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>55</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1229,14 +1229,14 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Väg 314: Fåssjödals jaktskyttebana, Hls</t>
+          <t>Fåssjödal: jaktskyttebanan, Hls</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>507292.8087301891</v>
+        <v>507284.6610038741</v>
       </c>
       <c r="R6" t="n">
-        <v>6894429.419321662</v>
+        <v>6894520.47029569</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2010-05-11</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2010-05-11</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Detalj. 5 rosetter varav 3 bl. inom 1 m2. Ny dellokal ca 15 m söder om tidigare känd.</t>
+          <t>Detalj. 55 ex. varav 15 bl. inom 10x4 m. 8 ex. avbetade, troligen av hare. 50 m norr om skjutstation.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1303,14 +1303,14 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Bengt Petterson, Bengt Ålkils</t>
+          <t>Hanna Wallén</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>65241436</v>
+        <v>61603559</v>
       </c>
       <c r="B7" t="n">
         <v>98536</v>
@@ -1343,27 +1343,29 @@
           <t>(L.) Mill.</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Skjutbanan Fåssjödal, Hls</t>
+          <t>Fåssjödal: jaktskyttebanan, Hls</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>507276.7001080211</v>
+        <v>507283.7669632705</v>
       </c>
       <c r="R7" t="n">
-        <v>6894525.123228387</v>
+        <v>6894501.32081546</v>
       </c>
       <c r="S7" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1387,7 +1389,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2017-05-01</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1397,7 +1399,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2017-05-01</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1407,7 +1409,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Plantorna närmast vägen i knopp övriga i full blomning</t>
+          <t>Detalj. 2 ex. bl. inom 0,1 m2. 30 m norr om skjutstation.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1422,19 +1424,19 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Håkan Blomqvist</t>
+          <t>Lars-Åke Bäckström</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Håkan Blomqvist</t>
+          <t>Hanna Wallén</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>71291278</v>
+        <v>61603562</v>
       </c>
       <c r="B8" t="n">
         <v>98536</v>
@@ -1467,23 +1469,29 @@
           <t>(L.) Mill.</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Skjutbanan, Fåssjö, Hls</t>
+          <t>Fåssjödal: jaktskyttebanan, Hls</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>507288.4076122353</v>
+        <v>507271.0595821391</v>
       </c>
       <c r="R8" t="n">
-        <v>6894518.143328622</v>
+        <v>6894538.1873585</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1507,7 +1515,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2018-05-09</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1517,12 +1525,17 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2018-05-09</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Detalj. 48 ex. varav 11 bl. inom 12 m2. 3 ex. avbetade, troligen av hare. 70 m norr om skjutstation.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1537,19 +1550,19 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Michael Tholin</t>
+          <t>Lars-Åke Bäckström</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Michael Tholin</t>
+          <t>Hanna Wallén</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>77241182</v>
+        <v>61608619</v>
       </c>
       <c r="B9" t="n">
         <v>98536</v>
@@ -1584,23 +1597,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Fåssjödal, skjutbanan, Fåssjödal, Hls</t>
+          <t>Fåssjödal / 700 m SV /, Hls</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>507284.6599952099</v>
+        <v>507334.2761449886</v>
       </c>
       <c r="R9" t="n">
-        <v>6894520.937305556</v>
+        <v>6894072.216497498</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1627,27 +1641,27 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2019-04-23</t>
+          <t>2005-05-23</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2019-04-23</t>
+          <t>2005-05-23</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>1 ex i blom</t>
+          <t>Detalj. 161 ex inom 1000 m2. 2 avbetade, troligen hare.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1656,33 +1670,32 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Lars-Åke Bäckström</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Hanna Wallén</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>504186</v>
+        <v>61615385</v>
       </c>
       <c r="B10" t="n">
         <v>98536</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1710,24 +1723,24 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Fåssjödal / 500 m V /, Hls</t>
+          <t>Väg 314: Fåssjödals jaktskyttebana, Hls</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>507452.7896036927</v>
+        <v>507292.8087301891</v>
       </c>
       <c r="R10" t="n">
-        <v>6894418.56041079</v>
+        <v>6894429.419321662</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1752,14 +1765,9 @@
           <t>Ytterhogdal</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>Z-Här-0651</t>
-        </is>
-      </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>2010-05-11</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1769,7 +1777,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>2010-05-11</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1779,7 +1787,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>14 ex veg. inom 2x5 m.</t>
+          <t>Detalj. 5 rosetter varav 3 bl. inom 1 m2. Ny dellokal ca 15 m söder om tidigare känd.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1794,26 +1802,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Z Län Floraväktarna</t>
+          <t>Lars-Åke Bäckström</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Hanna Wallén</t>
-        </is>
-      </c>
-      <c r="AY10" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+          <t>Bengt Petterson, Bengt Ålkils</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>80845722</v>
+        <v>65241436</v>
       </c>
       <c r="B11" t="n">
-        <v>90639</v>
+        <v>98536</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1822,50 +1826,48 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3100</v>
+        <v>1853</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(L.) Mill.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Skjutbanan Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>507436.8635695092</v>
+        <v>507276.7001080211</v>
       </c>
       <c r="R11" t="n">
-        <v>6894217.230953031</v>
+        <v>6894525.123228387</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1889,7 +1891,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2017-05-01</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1899,7 +1901,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2017-05-01</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1907,6 +1909,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Plantorna närmast vägen i knopp övriga i full blomning</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
@@ -1915,31 +1922,26 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>tät, 25-årig, lavrik åstallskog</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Håkan Blomqvist</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Håkan Blomqvist</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>80845733</v>
+        <v>71291278</v>
       </c>
       <c r="B12" t="n">
-        <v>90665</v>
+        <v>98536</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1948,50 +1950,44 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4366</v>
+        <v>1853</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(L.) Mill.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Skjutbanan, Fåssjö, Hls</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>507320.2104634023</v>
+        <v>507288.4076122353</v>
       </c>
       <c r="R12" t="n">
-        <v>6894302.912628792</v>
+        <v>6894518.143328622</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2015,7 +2011,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2018-05-09</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2025,7 +2021,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2018-05-09</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2041,80 +2037,75 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>30-årig sandtallskog</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Michael Tholin</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Michael Tholin</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>80845720</v>
+        <v>504186</v>
       </c>
       <c r="B13" t="n">
-        <v>90653</v>
+        <v>98536</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>1853</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Fåssjödal / 500 m V /, Hls</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>507402.2100072518</v>
+        <v>507452.7896036927</v>
       </c>
       <c r="R13" t="n">
-        <v>6894235.836839776</v>
+        <v>6894418.56041079</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2139,9 +2130,14 @@
           <t>Ytterhogdal</t>
         </is>
       </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Z-Här-0651</t>
+        </is>
+      </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2151,7 +2147,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2159,6 +2155,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>14 ex veg. inom 2x5 m.</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
@@ -2167,33 +2168,27 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>35-årig sandtallskog</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>vägkant</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Z Län Floraväktarna</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr"/>
+          <t>Hanna Wallén</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>80913889</v>
+        <v>77241182</v>
       </c>
       <c r="B14" t="n">
         <v>98536</v>
@@ -2231,19 +2226,23 @@
           <t>1</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>avk2019MITT305, Hls</t>
+          <t>Fåssjödal, skjutbanan, Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>507265.9261378314</v>
+        <v>507284.6599952099</v>
       </c>
       <c r="R14" t="n">
-        <v>6894315.872411964</v>
+        <v>6894520.937305556</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2265,30 +2264,29 @@
           <t>Ytterhogdal</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2019-06-16</t>
+          <t>2019-04-23</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2019-06-16</t>
+          <t>2019-04-23</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Innerslänt</t>
+          <t>1 ex i blom</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2297,29 +2295,26 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Klas Andersson</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Klas Andersson, Magnus Sjölund</t>
-        </is>
-      </c>
-      <c r="AY14" t="inlineStr">
-        <is>
-          <t>Trafikverkets inventeringar av arter i statliga vägmiljöer</t>
-        </is>
-      </c>
+          <t>Tomas Rydkvist</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>86640009</v>
+        <v>78233133</v>
       </c>
       <c r="B15" t="n">
         <v>98536</v>
@@ -2354,7 +2349,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>72</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2362,11 +2357,7 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>i frukt</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
@@ -2375,17 +2366,17 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Fåssjödal,Vägkant-5, Fåssjödal, Hls</t>
+          <t>Fåssjl, dödisgrop 1, Hls</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>507266.8656099134</v>
+        <v>507332.8911480352</v>
       </c>
       <c r="R15" t="n">
-        <v>6894314.006274063</v>
+        <v>6894063.80614421</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2409,27 +2400,27 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2020-07-03</t>
+          <t>2019-06-04</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2020-07-03</t>
+          <t>2019-06-04</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>NY DELLOKAL! Minst 18 bladrosetter, varav minst 9 blommat och samtliga burit frukt.</t>
+          <t>Endast 1 blomma. Plantorna är hart tränga av renlavar, ljung och enbuskar. De flesta av tallplanten rycktes I fjol sommar av SCA Skog.Dödisgropen är planerad att brännas nu I sommar.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2457,7 +2448,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>86640033</v>
+        <v>78233175</v>
       </c>
       <c r="B16" t="n">
         <v>98536</v>
@@ -2492,7 +2483,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2500,11 +2491,7 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>i frukt</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
@@ -2513,17 +2500,17 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Fåssjödal, glänta söder vägen, Fåssjödal, Hls</t>
+          <t>Fåssjö, Dödisgrop 2, Hls</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>507269.7142296092</v>
+        <v>507410.0928670231</v>
       </c>
       <c r="R16" t="n">
-        <v>6894294.396651481</v>
+        <v>6894054.166252391</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2547,27 +2534,27 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2020-07-03</t>
+          <t>2019-06-04</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2020-07-03</t>
+          <t>2019-06-04</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>NY DELLOKAL! Minst 6 bladrosetter, varav 4 blommat och tre bär frukt. En knopp torkat.</t>
+          <t>Ingen planta blommade. Plantorna är hart tränga av renlavar, ljung och enbuskar. De flesta av tallplanten rycktes I fjol sommar av SCA Skog.Dödisgropen är planerad att brännas nu I sommar.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2595,7 +2582,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>80845723</v>
+        <v>80845722</v>
       </c>
       <c r="B17" t="n">
         <v>90639</v>
@@ -2644,10 +2631,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>507656.1433368099</v>
+        <v>507436.8635695092</v>
       </c>
       <c r="R17" t="n">
-        <v>6894256.953847989</v>
+        <v>6894217.230953031</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2704,11 +2691,6 @@
       <c r="AI17" t="inlineStr">
         <is>
           <t>tät, 25-årig, lavrik åstallskog</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>stig</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2726,7 +2708,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>80845729</v>
+        <v>80845733</v>
       </c>
       <c r="B18" t="n">
         <v>90665</v>
@@ -2775,10 +2757,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>507656.9197706331</v>
+        <v>507320.2104634023</v>
       </c>
       <c r="R18" t="n">
-        <v>6894327.012192602</v>
+        <v>6894302.912628792</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2829,13 +2811,12 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>tät, lavrik, 30-årig sandtallskog</t>
+          <t>30-årig sandtallskog</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2853,10 +2834,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>61608620</v>
+        <v>80845723</v>
       </c>
       <c r="B19" t="n">
-        <v>98536</v>
+        <v>90639</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2865,47 +2846,47 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1853</v>
+        <v>3100</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Fåssjödal / 700 m SV /, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>507322.104312678</v>
+        <v>507656.1433368099</v>
       </c>
       <c r="R19" t="n">
-        <v>6894076.860792432</v>
+        <v>6894256.953847989</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2932,7 +2913,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2005-05-23</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2942,7 +2923,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2005-05-23</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2950,11 +2931,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Detalj. 30 ex inom 1,5 m2. 1 avbetad, troligen hare.</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
@@ -2963,26 +2939,36 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>tät, 25-årig, lavrik åstallskog</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>stig</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Lars-Åke Bäckström</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Hanna Wallén</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>61603563</v>
+        <v>80845729</v>
       </c>
       <c r="B20" t="n">
-        <v>98536</v>
+        <v>90665</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2991,47 +2977,47 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1853</v>
+        <v>4366</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Fåssjödal / 600 m SV /, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>507428.3303634566</v>
+        <v>507656.9197706331</v>
       </c>
       <c r="R20" t="n">
-        <v>6894056.541744754</v>
+        <v>6894327.012192602</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3058,7 +3044,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -3068,7 +3054,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -3076,39 +3062,40 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Detalj. 27 ex inom 3x3 m.</t>
-        </is>
-      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>tät, lavrik, 30-årig sandtallskog</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Lars-Åke Bäckström</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Hanna Wallén</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>61603564</v>
+        <v>80845720</v>
       </c>
       <c r="B21" t="n">
-        <v>98536</v>
+        <v>90653</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3117,47 +3104,47 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1853</v>
+        <v>4364</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Fåssjödal / 600 m SV /, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>507433.4911580504</v>
+        <v>507402.2100072518</v>
       </c>
       <c r="R21" t="n">
-        <v>6894049.546962359</v>
+        <v>6894235.836839776</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3184,7 +3171,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3194,7 +3181,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -3202,11 +3189,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Detalj. 15 ex inom 6 m2.</t>
-        </is>
-      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
@@ -3215,23 +3197,33 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>35-årig sandtallskog</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>vägkant</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Lars-Åke Bäckström</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Hanna Wallén</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>61608619</v>
+        <v>80913889</v>
       </c>
       <c r="B22" t="n">
         <v>98536</v>
@@ -3266,27 +3258,22 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Fåssjödal / 700 m SV /, Hls</t>
+          <t>avk2019MITT305, Hls</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>507334.2761449886</v>
+        <v>507265.9261378314</v>
       </c>
       <c r="R22" t="n">
-        <v>6894072.216497498</v>
+        <v>6894315.872411964</v>
       </c>
       <c r="S22" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3308,9 +3295,10 @@
           <t>Ytterhogdal</t>
         </is>
       </c>
+      <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2005-05-23</t>
+          <t>2019-06-16</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3320,7 +3308,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2005-05-23</t>
+          <t>2019-06-16</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3330,7 +3318,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Detalj. 161 ex inom 1000 m2. 2 avbetade, troligen hare.</t>
+          <t>Innerslänt</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3345,19 +3333,23 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Lars-Åke Bäckström</t>
+          <t>Klas Andersson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Hanna Wallén</t>
-        </is>
-      </c>
-      <c r="AY22" t="inlineStr"/>
+          <t>Klas Andersson, Magnus Sjölund</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>Trafikverkets inventeringar av arter i statliga vägmiljöer</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>78233133</v>
+        <v>86640009</v>
       </c>
       <c r="B23" t="n">
         <v>98536</v>
@@ -3392,7 +3384,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>18</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3400,7 +3392,11 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>i frukt</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
@@ -3409,17 +3405,17 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Fåssjl, dödisgrop 1, Hls</t>
+          <t>Fåssjödal,Vägkant-5, Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>507332.8911480352</v>
+        <v>507266.8656099134</v>
       </c>
       <c r="R23" t="n">
-        <v>6894063.80614421</v>
+        <v>6894314.006274063</v>
       </c>
       <c r="S23" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3443,27 +3439,27 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2019-06-04</t>
+          <t>2020-07-03</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2019-06-04</t>
+          <t>2020-07-03</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Endast 1 blomma. Plantorna är hart tränga av renlavar, ljung och enbuskar. De flesta av tallplanten rycktes I fjol sommar av SCA Skog.Dödisgropen är planerad att brännas nu I sommar.</t>
+          <t>NY DELLOKAL! Minst 18 bladrosetter, varav minst 9 blommat och samtliga burit frukt.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3491,7 +3487,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>78233175</v>
+        <v>86640033</v>
       </c>
       <c r="B24" t="n">
         <v>98536</v>
@@ -3526,7 +3522,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3534,7 +3530,11 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>i frukt</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
@@ -3543,17 +3543,17 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Fåssjö, Dödisgrop 2, Hls</t>
+          <t>Fåssjödal, glänta söder vägen, Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>507410.0928670231</v>
+        <v>507269.7142296092</v>
       </c>
       <c r="R24" t="n">
-        <v>6894054.166252391</v>
+        <v>6894294.396651481</v>
       </c>
       <c r="S24" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3577,27 +3577,27 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2019-06-04</t>
+          <t>2020-07-03</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2019-06-04</t>
+          <t>2020-07-03</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Ingen planta blommade. Plantorna är hart tränga av renlavar, ljung och enbuskar. De flesta av tallplanten rycktes I fjol sommar av SCA Skog.Dödisgropen är planerad att brännas nu I sommar.</t>
+          <t>NY DELLOKAL! Minst 6 bladrosetter, varav 4 blommat och tre bär frukt. En knopp torkat.</t>
         </is>
       </c>
       <c r="AD24" t="b">
